--- a/TemplateFile/Template.xlsx
+++ b/TemplateFile/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\source\pa_scheduler\TestFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\source\pa_scheduler\TemplateFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RequestedWorkDay" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,54 @@
   </si>
   <si>
     <t>Dates Available to Work End</t>
+  </si>
+  <si>
+    <t>Jun (A1)</t>
+  </si>
+  <si>
+    <t>Jay (A2)</t>
+  </si>
+  <si>
+    <t>Colleen (A3)</t>
+  </si>
+  <si>
+    <t>Vivian (A4)</t>
+  </si>
+  <si>
+    <t>Ralp (A5)</t>
+  </si>
+  <si>
+    <t>Jimy (A6)</t>
+  </si>
+  <si>
+    <t>Gavin (A7)</t>
+  </si>
+  <si>
+    <t>Maggie (A8)</t>
+  </si>
+  <si>
+    <t>JayZ (A9)</t>
+  </si>
+  <si>
+    <t>Parker (A10)</t>
+  </si>
+  <si>
+    <t>Singh (A11)</t>
+  </si>
+  <si>
+    <t>Jupiter (A12)</t>
+  </si>
+  <si>
+    <t>Kasi (A13)</t>
+  </si>
+  <si>
+    <t>Asah (A14)</t>
+  </si>
+  <si>
+    <t>Tyler (A15)</t>
+  </si>
+  <si>
+    <t>Mike (A16)</t>
   </si>
 </sst>
 </file>
@@ -369,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="A2:B31"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +672,134 @@
       </c>
       <c r="B1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
